--- a/Result Tables/Model.result.tables_merged.xlsx
+++ b/Result Tables/Model.result.tables_merged.xlsx
@@ -6,10 +6,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="nb.stem" sheetId="5" state="visible" r:id="rId1"/>
-    <sheet name="nb.flower" sheetId="6" state="visible" r:id="rId2"/>
-    <sheet name="stem.per.sqm" sheetId="7" state="visible" r:id="rId3"/>
-    <sheet name="HL_cover" sheetId="8" state="visible" r:id="rId4"/>
+    <sheet name="nb.stem" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="nb.flower" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="stem.per.sqm" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="HL_cover" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>

--- a/Result Tables/Model.result.tables_merged.xlsx
+++ b/Result Tables/Model.result.tables_merged.xlsx
@@ -9,13 +9,12 @@
     <sheet name="nb.stem" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="nb.flower" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="stem.per.sqm" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="HL_cover" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -63,12 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">soil_water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moss_cover</t>
   </si>
 </sst>
 </file>
@@ -682,19 +675,19 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -778,122 +771,6 @@
       </c>
       <c r="D6" s="2" t="n">
         <v>-4.892</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>54.509</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>4.843</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>11.256</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>0.422</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>5.407</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>0.226</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2.509</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0.0131</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>-0.594</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0.071</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>-8.411</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>-0.376</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>-6.448</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>

--- a/Result Tables/Model.result.tables_merged.xlsx
+++ b/Result Tables/Model.result.tables_merged.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">management2entbuscht</t>
+    <t xml:space="preserve">management2Kiefer (entb.)</t>
   </si>
   <si>
     <t xml:space="preserve">management2Buche</t>
